--- a/data/Classess_2023_biology.xlsx
+++ b/data/Classess_2023_biology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="493">
   <si>
     <t>Family</t>
   </si>
@@ -1818,17 +1818,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>st107404@student.spbu.ru</t>
-    </r>
-  </si>
-  <si>
     <t>Карвелис</t>
   </si>
   <si>
@@ -2366,6 +2355,18 @@
     </r>
   </si>
   <si>
+    <t>Дмитровская</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>st123831</t>
+  </si>
+  <si>
+    <t>st123831@student.spbu.ru</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2396,6 +2397,17 @@
         <charset val="134"/>
       </rPr>
       <t>st068684@student.spbu.ru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>st107404@student.spbu.ru</t>
     </r>
   </si>
   <si>
@@ -3762,8 +3774,8 @@
   <sheetPr/>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:F$1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5613,19 +5625,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="F93" s="13">
         <v>6</v>
@@ -5633,19 +5645,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F94" s="13">
         <v>6</v>
@@ -5653,19 +5665,17 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="F95" s="13">
         <v>6</v>
@@ -5673,17 +5683,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="F96" s="13">
         <v>6</v>
@@ -5691,19 +5703,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>389</v>
+        <v>73</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="F97" s="13">
         <v>6</v>
@@ -5711,19 +5723,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>392</v>
+        <v>55</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="F98" s="13">
         <v>6</v>
@@ -5731,19 +5743,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F99" s="13">
         <v>6</v>
@@ -5751,19 +5763,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>397</v>
+        <v>154</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F100" s="13">
         <v>6</v>
@@ -5771,19 +5783,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F101" s="13">
         <v>6</v>
@@ -5791,79 +5803,77 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F102" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E103" s="5" t="s">
+      <c r="A103" t="s">
         <v>409</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>411</v>
       </c>
       <c r="F103" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>410</v>
-      </c>
-      <c r="B104" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="E104" s="17" t="s">
+      <c r="A104" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="B104" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="F104" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>415</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F105" s="13">
         <v>7</v>
@@ -5871,17 +5881,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="F106" s="13">
         <v>7</v>
@@ -5889,19 +5901,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F107" s="13">
         <v>7</v>
@@ -5909,19 +5921,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F108" s="13">
         <v>7</v>
@@ -5929,19 +5941,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>430</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>433</v>
+        <v>55</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="F109" s="13">
         <v>7</v>
@@ -5949,19 +5961,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="F110" s="13">
         <v>7</v>
@@ -5969,19 +5981,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>438</v>
+        <v>183</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F111" s="13">
         <v>7</v>
@@ -5989,19 +6001,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>140</v>
+        <v>443</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>442</v>
+        <v>414</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="F112" s="13">
         <v>7</v>
@@ -6009,19 +6021,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>444</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F113" s="13">
         <v>7</v>
@@ -6029,19 +6041,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>449</v>
+        <v>46</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="F114" s="13">
         <v>7</v>
@@ -6049,19 +6061,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>414</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F115" s="13">
         <v>7</v>
@@ -6069,19 +6081,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>456</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="F116" s="13">
         <v>7</v>
@@ -6089,19 +6101,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="F117" s="13">
         <v>7</v>
@@ -6109,19 +6121,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>463</v>
+        <v>55</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>467</v>
       </c>
       <c r="F118" s="13">
         <v>7</v>
@@ -6129,19 +6141,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="F119" s="13">
         <v>7</v>
@@ -6149,59 +6161,59 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F120" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F121" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="E122" s="5" t="s">
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
         <v>479</v>
+      </c>
+      <c r="B122" t="s">
+        <v>480</v>
+      </c>
+      <c r="C122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" t="s">
+        <v>481</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6209,17 +6221,18 @@
     <sortCondition ref="F2:F122"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E110" r:id="rId1" display="st084055@student.spbu.ru" tooltip="mailto:st084055@student.spbu.ru"/>
+    <hyperlink ref="E109" r:id="rId1" display="st084055@student.spbu.ru" tooltip="mailto:st084055@student.spbu.ru"/>
     <hyperlink ref="E5" r:id="rId2" display="st108232@student.spbu.ru" tooltip="mailto:st108232@student.spbu.ru"/>
-    <hyperlink ref="D110" r:id="rId1" display="st084055" tooltip="mailto:st084055@student.spbu.ru"/>
+    <hyperlink ref="D109" r:id="rId1" display="st084055" tooltip="mailto:st084055@student.spbu.ru"/>
     <hyperlink ref="D5" r:id="rId2" display="st108232" tooltip="mailto:st108232@student.spbu.ru"/>
     <hyperlink ref="E37" r:id="rId3" display="st108300@student.spbu.ru"/>
     <hyperlink ref="E35" r:id="rId4" display="st123949@student.spbu.ru"/>
     <hyperlink ref="E69" r:id="rId5" display="st107404@student.spbu.ru"/>
-    <hyperlink ref="E104" r:id="rId6" display="st101568@student.spbu.ru"/>
+    <hyperlink ref="E103" r:id="rId6" display="st101568@student.spbu.ru"/>
     <hyperlink ref="E36" r:id="rId7" display="st123950@student.spbu.ru"/>
-    <hyperlink ref="E119" r:id="rId8" display="st123832@student.spbu.ru"/>
+    <hyperlink ref="E118" r:id="rId8" display="st123832@student.spbu.ru"/>
     <hyperlink ref="E71" r:id="rId9" display="st123859@student.spbu.ru"/>
+    <hyperlink ref="E122" r:id="rId10" display="st123831@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6254,7 +6267,7 @@
         <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E1" s="4">
         <v>1</v>
@@ -6263,16 +6276,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -6281,14 +6294,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -6504,7 +6517,7 @@
         <v>356</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -6513,7 +6526,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>77</v>
@@ -6522,7 +6535,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6549,16 +6562,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -6576,7 +6589,7 @@
         <v>366</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
@@ -6603,16 +6616,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -6621,7 +6634,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>72</v>
@@ -6630,7 +6643,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
@@ -6657,16 +6670,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -6684,7 +6697,7 @@
         <v>183</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E25" s="4">
         <v>3</v>
@@ -6720,7 +6733,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>373</v>
+        <v>486</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -6817,16 +6830,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E33" s="4">
         <v>4</v>
@@ -6835,16 +6848,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E34" s="4">
         <v>4</v>
@@ -6997,16 +7010,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E43" s="4">
         <v>5</v>
@@ -7060,7 +7073,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E46" s="4">
         <v>5</v>
@@ -7123,7 +7136,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>81</v>
@@ -7132,7 +7145,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E50" s="4">
         <v>5</v>
@@ -7141,16 +7154,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E51" s="4">
         <v>10</v>
@@ -7159,16 +7172,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E52" s="4">
         <v>10</v>
@@ -7186,7 +7199,7 @@
         <v>291</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E53" s="4">
         <v>6</v>
@@ -7319,7 +7332,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>99</v>
@@ -7328,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E61" s="4">
         <v>6</v>
@@ -7337,16 +7350,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E62" s="4">
         <v>6</v>
@@ -7481,14 +7494,14 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E70" s="4">
         <v>7</v>
@@ -7542,7 +7555,7 @@
         <v>329</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E73" s="4">
         <v>8</v>
@@ -7569,16 +7582,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E75" s="4">
         <v>8</v>
@@ -7605,16 +7618,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="D77" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E77" s="4">
         <v>8</v>
@@ -7659,7 +7672,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>99</v>
@@ -7668,7 +7681,7 @@
         <v>73</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E80" s="4">
         <v>8</v>
@@ -7713,7 +7726,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>81</v>
@@ -7722,7 +7735,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E83" s="4">
         <v>9</v>
@@ -7731,16 +7744,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E84" s="4">
         <v>9</v>
@@ -8001,7 +8014,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>308</v>
@@ -8010,7 +8023,7 @@
         <v>191</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E99" s="4">
         <v>10</v>
@@ -8037,7 +8050,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>153</v>
@@ -8046,7 +8059,7 @@
         <v>154</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E101" s="4">
         <v>11</v>
@@ -8073,16 +8086,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E103" s="4">
         <v>11</v>
@@ -8253,16 +8266,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E113" s="4">
         <v>12</v>
@@ -8271,16 +8284,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E114" s="4">
         <v>12</v>
@@ -8307,7 +8320,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>114</v>
@@ -8316,7 +8329,7 @@
         <v>95</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E116" s="4">
         <v>12</v>
@@ -8343,16 +8356,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="E118" s="4">
         <v>12</v>
@@ -8382,12 +8395,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/data/Classess_2023_biology.xlsx
+++ b/data/Classess_2023_biology.xlsx
@@ -3177,7 +3177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3237,6 +3237,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3775,7 +3778,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -6209,7 +6212,7 @@
       <c r="D122" t="s">
         <v>481</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="21" t="s">
         <v>482</v>
       </c>
       <c r="F122">
